--- a/public/sample_uploads/capital_commitments_multi_currency_large.xlsx
+++ b/public/sample_uploads/capital_commitments_multi_currency_large.xlsx
@@ -78,7 +78,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="132">
   <si>
-    <t xml:space="preserve">Investor *</t>
+    <t xml:space="preserve">Stakeholder *</t>
   </si>
   <si>
     <t xml:space="preserve">Fund *</t>
@@ -820,8 +820,8 @@
   </sheetPr>
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3:K101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/public/sample_uploads/capital_commitments_multi_currency_large.xlsx
+++ b/public/sample_uploads/capital_commitments_multi_currency_large.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="134">
   <si>
     <t xml:space="preserve">Stakeholder *</t>
   </si>
@@ -141,6 +141,9 @@
     <t xml:space="preserve">CF3</t>
   </si>
   <si>
+    <t xml:space="preserve">Form Tag</t>
+  </si>
+  <si>
     <t xml:space="preserve">Investor 1</t>
   </si>
   <si>
@@ -166,6 +169,9 @@
   </si>
   <si>
     <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default</t>
   </si>
   <si>
     <t xml:space="preserve">Investor 2</t>
@@ -593,7 +599,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -607,6 +613,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -818,10 +828,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U101"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="M98" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V3" activeCellId="0" sqref="V3:V101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -899,3329 +909,3632 @@
       <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
+      <c r="A2" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6" t="n">
         <v>22500</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
-        <v>23</v>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>30</v>
+      <c r="A3" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="n">
         <v>1800000</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>31</v>
+      <c r="A4" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="n">
         <v>2800000</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>23</v>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>34</v>
+      <c r="A5" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="n">
         <v>15000</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>35</v>
+      <c r="A6" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6" t="n">
         <v>3000000</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6" t="n">
         <v>1000000</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>23</v>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>38</v>
+      <c r="A8" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="n">
         <v>3000000</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>11</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>39</v>
+      <c r="A9" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6" t="n">
         <v>3000000</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>12</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>40</v>
+      <c r="A10" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6" t="n">
         <v>3000000</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>23</v>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>13</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>41</v>
+      <c r="A11" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6" t="n">
         <v>3200000</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>23</v>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>14</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>42</v>
+      <c r="A12" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C12" s="6" t="n">
         <v>3400000</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
-        <v>23</v>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>15</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6" t="n">
         <v>3600000</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
-        <v>23</v>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>16</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>44</v>
+      <c r="A14" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="n">
         <v>3800000</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
-        <v>23</v>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>17</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>45</v>
+      <c r="A15" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C15" s="6" t="n">
         <v>4000000</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>23</v>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>18</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>46</v>
+      <c r="A16" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6" t="n">
         <v>4200000</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>19</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>47</v>
+      <c r="A17" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C17" s="6" t="n">
         <v>4400000</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>20</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>48</v>
+      <c r="A18" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C18" s="6" t="n">
         <v>4600000</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
-        <v>23</v>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>21</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C19" s="6" t="n">
         <v>4800000</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5" t="s">
-        <v>23</v>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>22</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>50</v>
+      <c r="A20" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C20" s="6" t="n">
         <v>5000000</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5" t="s">
-        <v>23</v>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>23</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>51</v>
+      <c r="A21" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C21" s="6" t="n">
         <v>5200000</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5" t="s">
-        <v>23</v>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>24</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>52</v>
+      <c r="A22" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C22" s="6" t="n">
         <v>5400000</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
-        <v>23</v>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>25</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>53</v>
+      <c r="A23" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C23" s="6" t="n">
         <v>5600000.00000001</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
-        <v>23</v>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>26</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>54</v>
+      <c r="A24" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" s="6" t="n">
         <v>5800000.00000001</v>
       </c>
-      <c r="D24" s="5"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>27</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" s="6" t="n">
         <v>6000000.00000001</v>
       </c>
-      <c r="D25" s="5"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>28</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>56</v>
+      <c r="A26" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C26" s="6" t="n">
         <v>6200000.00000001</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5" t="s">
-        <v>23</v>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>29</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>57</v>
+      <c r="A27" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C27" s="6" t="n">
         <v>6400000.00000001</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5" t="s">
-        <v>23</v>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>30</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>58</v>
+      <c r="A28" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C28" s="6" t="n">
         <v>6600000.00000001</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5" t="s">
-        <v>23</v>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>31</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>59</v>
+      <c r="A29" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C29" s="6" t="n">
         <v>6800000.00000001</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5" t="s">
-        <v>23</v>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>32</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>60</v>
+      <c r="A30" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C30" s="6" t="n">
         <v>7000000.00000001</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5" t="s">
-        <v>23</v>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>33</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C31" s="6" t="n">
         <v>7200000.00000001</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5" t="s">
-        <v>23</v>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>34</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>62</v>
+      <c r="A32" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C32" s="6" t="n">
         <v>7400000.00000001</v>
       </c>
-      <c r="D32" s="5"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>35</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>63</v>
+      <c r="A33" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C33" s="6" t="n">
         <v>7600000.00000001</v>
       </c>
-      <c r="D33" s="5"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>36</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>64</v>
+      <c r="A34" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C34" s="6" t="n">
         <v>7800000.00000001</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5" t="s">
-        <v>23</v>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>37</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>65</v>
+      <c r="A35" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C35" s="6" t="n">
         <v>8000000.00000001</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5" t="s">
-        <v>23</v>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F35" s="1" t="n">
         <v>38</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>66</v>
+      <c r="A36" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C36" s="6" t="n">
         <v>8200000.00000001</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5" t="s">
-        <v>23</v>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>39</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V36" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C37" s="6" t="n">
         <v>8400000.00000001</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5" t="s">
-        <v>23</v>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>40</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>68</v>
+      <c r="A38" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C38" s="6" t="n">
         <v>8600000.00000001</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5" t="s">
-        <v>23</v>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>41</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
-        <v>69</v>
+      <c r="A39" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C39" s="6" t="n">
         <v>8800000.00000001</v>
       </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5" t="s">
-        <v>23</v>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>42</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>70</v>
+      <c r="A40" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C40" s="6" t="n">
         <v>9000000.00000001</v>
       </c>
-      <c r="D40" s="5"/>
+      <c r="D40" s="6"/>
       <c r="E40" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F40" s="1" t="n">
         <v>43</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>71</v>
+      <c r="A41" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C41" s="6" t="n">
         <v>9200000.00000001</v>
       </c>
-      <c r="D41" s="5"/>
+      <c r="D41" s="6"/>
       <c r="E41" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F41" s="1" t="n">
         <v>44</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V41" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>72</v>
+      <c r="A42" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C42" s="6" t="n">
         <v>9400000.00000001</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5" t="s">
-        <v>23</v>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F42" s="1" t="n">
         <v>45</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C43" s="6" t="n">
         <v>9600000.00000001</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5" t="s">
-        <v>23</v>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F43" s="1" t="n">
         <v>46</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
-        <v>74</v>
+      <c r="A44" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C44" s="6" t="n">
         <v>9800000.00000001</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5" t="s">
-        <v>23</v>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F44" s="1" t="n">
         <v>47</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V44" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
-        <v>75</v>
+      <c r="A45" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C45" s="6" t="n">
         <v>10000000</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5" t="s">
-        <v>23</v>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F45" s="1" t="n">
         <v>48</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
-        <v>76</v>
+      <c r="A46" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C46" s="6" t="n">
         <v>10200000</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5" t="s">
-        <v>23</v>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F46" s="1" t="n">
         <v>49</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V46" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
-        <v>77</v>
+      <c r="A47" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C47" s="6" t="n">
         <v>10400000</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5" t="s">
-        <v>23</v>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F47" s="1" t="n">
         <v>50</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
-        <v>78</v>
+      <c r="A48" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C48" s="6" t="n">
         <v>10600000</v>
       </c>
-      <c r="D48" s="5"/>
+      <c r="D48" s="6"/>
       <c r="E48" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F48" s="1" t="n">
         <v>51</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C49" s="6" t="n">
         <v>10800000</v>
       </c>
-      <c r="D49" s="5"/>
+      <c r="D49" s="6"/>
       <c r="E49" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F49" s="1" t="n">
         <v>52</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
-        <v>80</v>
+      <c r="A50" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C50" s="6" t="n">
         <v>11000000</v>
       </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5" t="s">
-        <v>23</v>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F50" s="1" t="n">
         <v>53</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
-        <v>81</v>
+      <c r="A51" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C51" s="6" t="n">
         <v>11200000</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5" t="s">
-        <v>23</v>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F51" s="1" t="n">
         <v>54</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V51" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
-        <v>82</v>
+      <c r="A52" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C52" s="6" t="n">
         <v>11400000</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5" t="s">
-        <v>23</v>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F52" s="1" t="n">
         <v>55</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
-        <v>83</v>
+      <c r="A53" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C53" s="6" t="n">
         <v>11600000</v>
       </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5" t="s">
-        <v>23</v>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F53" s="1" t="n">
         <v>56</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V53" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
-        <v>84</v>
+      <c r="A54" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C54" s="6" t="n">
         <v>11800000</v>
       </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5" t="s">
-        <v>23</v>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F54" s="1" t="n">
         <v>57</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V54" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C55" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5" t="s">
-        <v>23</v>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F55" s="1" t="n">
         <v>58</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V55" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
-        <v>86</v>
+      <c r="A56" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C56" s="6" t="n">
         <v>12200000</v>
       </c>
-      <c r="D56" s="5"/>
+      <c r="D56" s="6"/>
       <c r="E56" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F56" s="1" t="n">
         <v>59</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V56" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
-        <v>87</v>
+      <c r="A57" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C57" s="6" t="n">
         <v>12400000</v>
       </c>
-      <c r="D57" s="5"/>
+      <c r="D57" s="6"/>
       <c r="E57" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F57" s="1" t="n">
         <v>60</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N57" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V57" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
-        <v>88</v>
+      <c r="A58" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C58" s="6" t="n">
         <v>12600000</v>
       </c>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5" t="s">
-        <v>23</v>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F58" s="1" t="n">
         <v>61</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V58" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
-        <v>89</v>
+      <c r="A59" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C59" s="6" t="n">
         <v>12800000</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5" t="s">
-        <v>23</v>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F59" s="1" t="n">
         <v>62</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V59" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
-        <v>90</v>
+      <c r="A60" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C60" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C60" s="6" t="n">
         <v>13000000</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5" t="s">
-        <v>23</v>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F60" s="1" t="n">
         <v>63</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N60" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V60" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C61" s="6" t="n">
         <v>13200000</v>
       </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5" t="s">
-        <v>23</v>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F61" s="1" t="n">
         <v>64</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V61" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
-        <v>92</v>
+      <c r="A62" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C62" s="6" t="n">
         <v>13400000</v>
       </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5" t="s">
-        <v>23</v>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F62" s="1" t="n">
         <v>65</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N62" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V62" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
-        <v>93</v>
+      <c r="A63" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C63" s="6" t="n">
         <v>13600000</v>
       </c>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5" t="s">
-        <v>23</v>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F63" s="1" t="n">
         <v>66</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V63" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
-        <v>94</v>
+      <c r="A64" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C64" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C64" s="6" t="n">
         <v>13800000</v>
       </c>
-      <c r="D64" s="5"/>
+      <c r="D64" s="6"/>
       <c r="E64" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F64" s="1" t="n">
         <v>67</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K64" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V64" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="s">
-        <v>95</v>
+      <c r="A65" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C65" s="6" t="n">
         <v>14000000</v>
       </c>
-      <c r="D65" s="5"/>
+      <c r="D65" s="6"/>
       <c r="E65" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F65" s="1" t="n">
         <v>68</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V65" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
-        <v>96</v>
+      <c r="A66" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C66" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C66" s="6" t="n">
         <v>14200000</v>
       </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5" t="s">
-        <v>23</v>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F66" s="1" t="n">
         <v>69</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V66" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C67" s="6" t="n">
         <v>14400000</v>
       </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5" t="s">
-        <v>23</v>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F67" s="1" t="n">
         <v>70</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K67" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V67" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="s">
-        <v>98</v>
+      <c r="A68" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C68" s="6" t="n">
         <v>14600000</v>
       </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5" t="s">
-        <v>23</v>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F68" s="1" t="n">
         <v>71</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V68" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="s">
-        <v>99</v>
+      <c r="A69" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C69" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C69" s="6" t="n">
         <v>14800000</v>
       </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5" t="s">
-        <v>23</v>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F69" s="1" t="n">
         <v>72</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K69" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V69" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
-        <v>100</v>
+      <c r="A70" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C70" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C70" s="6" t="n">
         <v>15000000</v>
       </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5" t="s">
-        <v>23</v>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F70" s="1" t="n">
         <v>73</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K70" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V70" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
-        <v>101</v>
+      <c r="A71" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C71" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C71" s="6" t="n">
         <v>15200000</v>
       </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5" t="s">
-        <v>23</v>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F71" s="1" t="n">
         <v>74</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K71" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V71" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="s">
-        <v>102</v>
+      <c r="A72" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C72" s="6" t="n">
         <v>15400000</v>
       </c>
-      <c r="D72" s="5"/>
+      <c r="D72" s="6"/>
       <c r="E72" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F72" s="1" t="n">
         <v>75</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K72" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V72" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C73" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C73" s="6" t="n">
         <v>15600000</v>
       </c>
-      <c r="D73" s="5"/>
+      <c r="D73" s="6"/>
       <c r="E73" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F73" s="1" t="n">
         <v>76</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K73" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V73" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="s">
-        <v>104</v>
+      <c r="A74" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C74" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C74" s="6" t="n">
         <v>15800000</v>
       </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5" t="s">
-        <v>23</v>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F74" s="1" t="n">
         <v>77</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K74" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V74" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="s">
-        <v>105</v>
+      <c r="A75" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C75" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C75" s="6" t="n">
         <v>16000000</v>
       </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5" t="s">
-        <v>23</v>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F75" s="1" t="n">
         <v>78</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K75" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V75" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="s">
-        <v>106</v>
+      <c r="A76" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C76" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C76" s="6" t="n">
         <v>16200000</v>
       </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5" t="s">
-        <v>23</v>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F76" s="1" t="n">
         <v>79</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K76" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V76" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="s">
-        <v>107</v>
+      <c r="A77" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C77" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C77" s="6" t="n">
         <v>16400000</v>
       </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5" t="s">
-        <v>23</v>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F77" s="1" t="n">
         <v>80</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K77" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V77" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="s">
-        <v>108</v>
+      <c r="A78" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C78" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C78" s="6" t="n">
         <v>16600000</v>
       </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5" t="s">
-        <v>23</v>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F78" s="1" t="n">
         <v>81</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K78" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V78" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C79" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C79" s="6" t="n">
         <v>16800000</v>
       </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5" t="s">
-        <v>23</v>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F79" s="1" t="n">
         <v>82</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K79" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V79" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="s">
-        <v>110</v>
+      <c r="A80" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C80" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C80" s="6" t="n">
         <v>17000000</v>
       </c>
-      <c r="D80" s="5"/>
+      <c r="D80" s="6"/>
       <c r="E80" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F80" s="1" t="n">
         <v>83</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V80" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="s">
-        <v>111</v>
+      <c r="A81" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C81" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C81" s="6" t="n">
         <v>17200000</v>
       </c>
-      <c r="D81" s="5"/>
+      <c r="D81" s="6"/>
       <c r="E81" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F81" s="1" t="n">
         <v>84</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V81" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="s">
-        <v>112</v>
+      <c r="A82" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C82" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C82" s="6" t="n">
         <v>17400000</v>
       </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5" t="s">
-        <v>23</v>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F82" s="1" t="n">
         <v>85</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K82" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V82" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="s">
-        <v>113</v>
+      <c r="A83" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C83" s="6" t="n">
         <v>17600000</v>
       </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5" t="s">
-        <v>23</v>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F83" s="1" t="n">
         <v>86</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V83" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="s">
-        <v>114</v>
+      <c r="A84" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C84" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C84" s="6" t="n">
         <v>17800000</v>
       </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5" t="s">
-        <v>23</v>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F84" s="1" t="n">
         <v>87</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K84" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V84" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C85" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C85" s="6" t="n">
         <v>18000000</v>
       </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5" t="s">
-        <v>23</v>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F85" s="1" t="n">
         <v>88</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K85" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N85" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V85" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="s">
-        <v>116</v>
+      <c r="A86" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C86" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C86" s="6" t="n">
         <v>18200000</v>
       </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5" t="s">
-        <v>23</v>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F86" s="1" t="n">
         <v>89</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K86" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V86" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="s">
-        <v>117</v>
+      <c r="A87" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C87" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C87" s="6" t="n">
         <v>18400000</v>
       </c>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5" t="s">
-        <v>23</v>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F87" s="1" t="n">
         <v>90</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V87" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="s">
-        <v>118</v>
+      <c r="A88" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C88" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C88" s="6" t="n">
         <v>18600000</v>
       </c>
-      <c r="D88" s="5"/>
+      <c r="D88" s="6"/>
       <c r="E88" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F88" s="1" t="n">
         <v>91</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V88" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="s">
-        <v>119</v>
+      <c r="A89" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C89" s="6" t="n">
         <v>18800000</v>
       </c>
-      <c r="D89" s="5"/>
+      <c r="D89" s="6"/>
       <c r="E89" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F89" s="1" t="n">
         <v>92</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K89" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V89" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="s">
-        <v>120</v>
+      <c r="A90" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C90" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C90" s="6" t="n">
         <v>19000000</v>
       </c>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5" t="s">
-        <v>23</v>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F90" s="1" t="n">
         <v>93</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K90" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V90" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C91" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C91" s="6" t="n">
         <v>19200000</v>
       </c>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5" t="s">
-        <v>23</v>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F91" s="1" t="n">
         <v>94</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K91" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V91" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="s">
-        <v>122</v>
+      <c r="A92" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C92" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C92" s="6" t="n">
         <v>19400000</v>
       </c>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5" t="s">
-        <v>23</v>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F92" s="1" t="n">
         <v>95</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K92" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V92" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="s">
-        <v>123</v>
+      <c r="A93" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C93" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C93" s="6" t="n">
         <v>19600000</v>
       </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5" t="s">
-        <v>23</v>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F93" s="1" t="n">
         <v>96</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K93" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V93" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4" t="s">
-        <v>124</v>
+      <c r="A94" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C94" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C94" s="6" t="n">
         <v>19800000</v>
       </c>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5" t="s">
-        <v>23</v>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F94" s="1" t="n">
         <v>97</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K94" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N94" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V94" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4" t="s">
-        <v>125</v>
+      <c r="A95" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C95" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C95" s="6" t="n">
         <v>20000000</v>
       </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5" t="s">
-        <v>23</v>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F95" s="1" t="n">
         <v>98</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K95" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V95" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="s">
-        <v>126</v>
+      <c r="A96" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C96" s="6" t="n">
         <v>20200000</v>
       </c>
-      <c r="D96" s="5"/>
+      <c r="D96" s="6"/>
       <c r="E96" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F96" s="1" t="n">
         <v>99</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K96" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N96" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V96" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C97" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C97" s="6" t="n">
         <v>20400000</v>
       </c>
-      <c r="D97" s="5"/>
+      <c r="D97" s="6"/>
       <c r="E97" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F97" s="1" t="n">
         <v>100</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K97" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V97" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4" t="s">
-        <v>128</v>
+      <c r="A98" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C98" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C98" s="6" t="n">
         <v>20600000</v>
       </c>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5" t="s">
-        <v>23</v>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F98" s="1" t="n">
         <v>101</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K98" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N98" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V98" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="s">
-        <v>129</v>
+      <c r="A99" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C99" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C99" s="6" t="n">
         <v>20800000</v>
       </c>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5" t="s">
-        <v>23</v>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F99" s="1" t="n">
         <v>102</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K99" s="6" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N99" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V99" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4" t="s">
-        <v>130</v>
+      <c r="A100" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C100" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C100" s="6" t="n">
         <v>21000000</v>
       </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5" t="s">
-        <v>23</v>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F100" s="1" t="n">
         <v>103</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K100" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="K100" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V100" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="s">
-        <v>131</v>
+      <c r="A101" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C101" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C101" s="6" t="n">
         <v>21200000</v>
       </c>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5" t="s">
-        <v>23</v>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F101" s="1" t="n">
         <v>104</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K101" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="N101" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="V101" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
